--- a/data_year/zb/固定资产投资和房地产/按用途分房地产开发企业新开工面积.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按用途分房地产开发企业新开工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,524 +468,320 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24401.1518</v>
+        <v>129359.31</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.9116</v>
+        <v>13146.91</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.0942</v>
+        <v>5080.05</v>
       </c>
       <c r="E2" t="n">
-        <v>898.8119</v>
+        <v>3668.07</v>
       </c>
       <c r="F2" t="n">
-        <v>3034.7658</v>
+        <v>17472.58</v>
       </c>
       <c r="G2" t="n">
-        <v>29582.6411</v>
+        <v>163646.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30532.7173</v>
+        <v>147163.1127</v>
       </c>
       <c r="C3" t="n">
-        <v>1683.0816</v>
+        <v>17943.7716</v>
       </c>
       <c r="D3" t="n">
-        <v>1456.6887</v>
+        <v>5653.0117</v>
       </c>
       <c r="E3" t="n">
-        <v>1072.9759</v>
+        <v>5399.2042</v>
       </c>
       <c r="F3" t="n">
-        <v>4105.4017</v>
+        <v>20730.7797</v>
       </c>
       <c r="G3" t="n">
-        <v>37394.1765</v>
+        <v>191236.8682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34719.3487</v>
+        <v>130695.4195</v>
       </c>
       <c r="C4" t="n">
-        <v>1900.451</v>
+        <v>18644.8914</v>
       </c>
       <c r="D4" t="n">
-        <v>2278.1702</v>
+        <v>4228.3135</v>
       </c>
       <c r="E4" t="n">
-        <v>1254.2432</v>
+        <v>5986.4556</v>
       </c>
       <c r="F4" t="n">
-        <v>4926.4758</v>
+        <v>22006.8509</v>
       </c>
       <c r="G4" t="n">
-        <v>42800.5187</v>
+        <v>177333.6174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43853.8828</v>
+        <v>145844.8011</v>
       </c>
       <c r="C5" t="n">
-        <v>2679.96</v>
+        <v>22573.8008</v>
       </c>
       <c r="D5" t="n">
-        <v>2349.2874</v>
+        <v>4454.5931</v>
       </c>
       <c r="E5" t="n">
-        <v>1466.8903</v>
+        <v>6887.2386</v>
       </c>
       <c r="F5" t="n">
-        <v>6706.799</v>
+        <v>25902.0016</v>
       </c>
       <c r="G5" t="n">
-        <v>54707.5321</v>
+        <v>201207.8421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47949.0088</v>
+        <v>124877.0021</v>
       </c>
       <c r="C6" t="n">
-        <v>2969.8489</v>
+        <v>22318.6647</v>
       </c>
       <c r="D6" t="n">
-        <v>2975.69</v>
+        <v>4275.0064</v>
       </c>
       <c r="E6" t="n">
-        <v>1704.1907</v>
+        <v>7349.0989</v>
       </c>
       <c r="F6" t="n">
-        <v>7790.8103</v>
+        <v>25047.7269</v>
       </c>
       <c r="G6" t="n">
-        <v>60413.8587</v>
+        <v>179592.4926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55185.0685</v>
+        <v>106651.298</v>
       </c>
       <c r="C7" t="n">
-        <v>3532.7947</v>
+        <v>18702.9645</v>
       </c>
       <c r="D7" t="n">
-        <v>2834.9735</v>
+        <v>3318.4108</v>
       </c>
       <c r="E7" t="n">
-        <v>1671.1039</v>
+        <v>6569.1214</v>
       </c>
       <c r="F7" t="n">
-        <v>7675.4711</v>
+        <v>22530.2918</v>
       </c>
       <c r="G7" t="n">
-        <v>68064.4382</v>
+        <v>154453.6757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64403.796</v>
+        <v>115910.5956</v>
       </c>
       <c r="C8" t="n">
-        <v>4240.8581</v>
+        <v>22285.6122</v>
       </c>
       <c r="D8" t="n">
-        <v>4058.3212</v>
+        <v>3662.1366</v>
       </c>
       <c r="E8" t="n">
-        <v>2134.9434</v>
+        <v>6415.2857</v>
       </c>
       <c r="F8" t="n">
-        <v>8473.233099999999</v>
+        <v>22316.6348</v>
       </c>
       <c r="G8" t="n">
-        <v>79252.8306</v>
+        <v>166928.1283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78795.5064</v>
+        <v>128097.78</v>
       </c>
       <c r="C9" t="n">
-        <v>5370.6955</v>
+        <v>23932.4061</v>
       </c>
       <c r="D9" t="n">
-        <v>4914.4109</v>
+        <v>4282.6762</v>
       </c>
       <c r="E9" t="n">
-        <v>2141.4379</v>
+        <v>6139.6585</v>
       </c>
       <c r="F9" t="n">
-        <v>9093.894899999999</v>
+        <v>20483.9258</v>
       </c>
       <c r="G9" t="n">
-        <v>95401.5347</v>
+        <v>178653.7704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83642.12</v>
+        <v>153485.3558</v>
       </c>
       <c r="C10" t="n">
-        <v>6398.62</v>
+        <v>29954.9054</v>
       </c>
       <c r="D10" t="n">
-        <v>4336.97</v>
+        <v>5469.9553</v>
       </c>
       <c r="E10" t="n">
-        <v>2471.95</v>
+        <v>6101.5085</v>
       </c>
       <c r="F10" t="n">
-        <v>10040.69</v>
+        <v>19995.3901</v>
       </c>
       <c r="G10" t="n">
-        <v>102553.37</v>
+        <v>209537.1598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93298.41</v>
+        <v>167463.4262</v>
       </c>
       <c r="C11" t="n">
-        <v>7847.84</v>
+        <v>33670.2914</v>
       </c>
       <c r="D11" t="n">
-        <v>3649.8</v>
+        <v>4227.3363</v>
       </c>
       <c r="E11" t="n">
-        <v>2860.76</v>
+        <v>7083.5862</v>
       </c>
       <c r="F11" t="n">
-        <v>12415.03</v>
+        <v>18936.2791</v>
       </c>
       <c r="G11" t="n">
-        <v>116422.05</v>
+        <v>227153.5829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129359.31</v>
+        <v>164328.5319</v>
       </c>
       <c r="C12" t="n">
-        <v>13146.91</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5080.05</v>
-      </c>
+        <v>35488.5748</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>3668.07</v>
+        <v>6603.709</v>
       </c>
       <c r="F12" t="n">
-        <v>17472.58</v>
+        <v>18012.3174</v>
       </c>
       <c r="G12" t="n">
-        <v>163646.87</v>
+        <v>224433.1331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147163.1127</v>
+        <v>146378.5584</v>
       </c>
       <c r="C13" t="n">
-        <v>17943.7716</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5653.0117</v>
-      </c>
+        <v>33187.0757</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>5399.2042</v>
+        <v>5223.8877</v>
       </c>
       <c r="F13" t="n">
-        <v>20730.7797</v>
+        <v>14105.5253</v>
       </c>
       <c r="G13" t="n">
-        <v>191236.8682</v>
+        <v>198895.0471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>130695.4195</v>
+        <v>88135.07670000001</v>
       </c>
       <c r="C14" t="n">
-        <v>18644.8914</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4228.3135</v>
-      </c>
+        <v>21077.2888</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5986.4556</v>
+        <v>3180.1459</v>
       </c>
       <c r="F14" t="n">
-        <v>22006.8509</v>
+        <v>8194.5589</v>
       </c>
       <c r="G14" t="n">
-        <v>177333.6174</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>145844.8011</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22573.8008</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4454.5931</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6887.2386</v>
-      </c>
-      <c r="F15" t="n">
-        <v>25902.0016</v>
-      </c>
-      <c r="G15" t="n">
-        <v>201207.8421</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>124877.0021</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22318.6647</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4275.0064</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7349.0989</v>
-      </c>
-      <c r="F16" t="n">
-        <v>25047.7269</v>
-      </c>
-      <c r="G16" t="n">
-        <v>179592.4926</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>106651.298</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18702.9645</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3318.4108</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6569.1214</v>
-      </c>
-      <c r="F17" t="n">
-        <v>22530.2918</v>
-      </c>
-      <c r="G17" t="n">
-        <v>154453.6757</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>115910.5956</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22285.6122</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3662.1366</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6415.2857</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22316.6348</v>
-      </c>
-      <c r="G18" t="n">
-        <v>166928.1283</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>128097.78</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23932.4061</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4282.6762</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6139.6585</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20483.9258</v>
-      </c>
-      <c r="G19" t="n">
-        <v>178653.7704</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>153485.3558</v>
-      </c>
-      <c r="C20" t="n">
-        <v>29954.9054</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5469.9553</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6101.5085</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19995.3901</v>
-      </c>
-      <c r="G20" t="n">
-        <v>209537.1598</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>167463.4262</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33670.2914</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4227.3363</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7083.5862</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18936.2791</v>
-      </c>
-      <c r="G21" t="n">
-        <v>227153.5829</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>164328.5319</v>
-      </c>
-      <c r="C22" t="n">
-        <v>35488.5748</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>6603.709</v>
-      </c>
-      <c r="F22" t="n">
-        <v>18012.3174</v>
-      </c>
-      <c r="G22" t="n">
-        <v>224433.1331</v>
+        <v>120587.0703</v>
       </c>
     </row>
   </sheetData>
